--- a/medicine/Enfance/Christian_Léourier/Christian_Léourier.xlsx
+++ b/medicine/Enfance/Christian_Léourier/Christian_Léourier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christian_L%C3%A9ourier</t>
+          <t>Christian_Léourier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Léourier, né le 11 décembre 1948 à Paris, est un écrivain français de romans et de Littérature d'enfance et de jeunesse. Son domaine de prédilection est la science-fiction.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christian_L%C3%A9ourier</t>
+          <t>Christian_Léourier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'abord auteur de romans de science-fiction, Christian Léourier poursuit sa carrière en alternant des romans et nouvelles pour adultes et pour la jeunesse. 
-Il a travaillé pour la Direction de la mémoire, du patrimoine et des archives du Ministère de la Défense et y a codirigé la collection « Les Romans de la mémoire »[1]. De 2011 à 2013, les éditions Ad Astra rééditent son cycle majeur de science-fiction, le Cycle de Lanmeur, en trois volumes qui contiennent poèmes et nouvelles inédits. Les éditions Vo'yel rééditent de leur côté, en 2011, le plus célèbre roman jeunesse de l'auteur, L'Arbre-Miroir. 
+Il a travaillé pour la Direction de la mémoire, du patrimoine et des archives du Ministère de la Défense et y a codirigé la collection « Les Romans de la mémoire ». De 2011 à 2013, les éditions Ad Astra rééditent son cycle majeur de science-fiction, le Cycle de Lanmeur, en trois volumes qui contiennent poèmes et nouvelles inédits. Les éditions Vo'yel rééditent de leur côté, en 2011, le plus célèbre roman jeunesse de l'auteur, L'Arbre-Miroir. 
 En mai 2013, la réédition du Cycle de Lanmeur aux éditions Ad Astra obtient le prix spécial du grand prix de l'Imaginaire.
 Sa nouvelle Le Réveil des Hommes Blancs obtient le prix Rosny aîné en 2014, texte paru dans la revue Bifrost.
 En 2015, il publie chez Ad Astra deux romans totalement inédits du Cycle de Lanmeur, réunis dans un seul volume, 21 ans après le dernier inédit paru aux éditions J'ai lu. Ce nouveau volume s'intitule Aux origines du Rassemblement et est un prequel aux sept romans précédents. Ces deux récits racontent la genèse de son univers et, notamment, la naissance de la dynastie des Thoréides.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christian_L%C3%A9ourier</t>
+          <t>Christian_Léourier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Le Cycle de Lanmeur
-Première Édition des Volets 1 à 7
+          <t>Série Le Cycle de Lanmeur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première Édition des Volets 1 à 7
 Ti-Harnog, J'ai lu, 1984
 L'Homme qui tua l'hiver, J'ai lu, 1986
 Mille fois mille fleuves, J'ai lu, 1987
@@ -560,45 +579,298 @@
 Intégrale 1 - Les Contacteurs, Ad Astra, 2011Réédition Gallimard, coll. « Folio SF » no 487, 2014Comprend les Volets 1 à 3
 Intégrale 2 - Les Enfants du Léthé, Ad Astra, 2012Réédition Gallimard, coll. « Folio SF » no 497, 2014Comprend les Volets 4 à 5 et une nouvelle
 Intégrale 3 - Les Rêveurs de l'Irgendwo, Ad Astra, 2013Réédition Gallimard, coll. « Folio SF » no 518, 2015Comprend les Volets 6 à 7 et deux nouvelles
-Intégrale 4 - Aux origines du Rassemblement, Ad Astra, 2015Pré-quelle aux volets 1 à 7 précédents
-Série La Lyre et le Glaive
-Le Diseur de mots, Critic, 2019Prix Elbakin.net du meilleur roman de fantasy français 2019
-Danseuse de corde, Critic, 2020
-Romans indépendants
-Les Montagnes du soleil, Robert Laffont, coll. « Ailleurs et Demain », 1972
+Intégrale 4 - Aux origines du Rassemblement, Ad Astra, 2015Pré-quelle aux volets 1 à 7 précédents</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christian_Léourier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_L%C3%A9ourier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série La Lyre et le Glaive</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Diseur de mots, Critic, 2019Prix Elbakin.net du meilleur roman de fantasy français 2019
+Danseuse de corde, Critic, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christian_Léourier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_L%C3%A9ourier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Montagnes du soleil, Robert Laffont, coll. « Ailleurs et Demain », 1972
 La Planète inquiète, Robert Laffont, coll. « Ailleurs et Demain », 1979
 Sitrinjêta, Critic, 2016
 Dur Silence de la neige, Les Moutons électriques, 2016
 Helstrid, Le Bélial', coll. « Une heure-lumière » no 17, 2019Grand prix de l'Imaginaire 2020
-Les oiseaux d'Argyl, Argyll, 2024, 352 p.
-Nouvelles
-Il est également l'auteur de nombreuses nouvelles de science-fiction, généralement publiées chez OPTA ou dans des recueils thématiques dont :
+Les oiseaux d'Argyl, Argyll, 2024, 352 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christian_Léourier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_L%C3%A9ourier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Il est également l'auteur de nombreuses nouvelles de science-fiction, généralement publiées chez OPTA ou dans des recueils thématiques dont :
 Le Triptyque de Kohr, 1976
 L'Ouvre-boîte, 1976
 La Peau Bleue, 1985
 Blues pour un garçon perdu, 2004Parue dans Les Ombres de Peter Pan, Mnémos
 Quelques notes à propos du décès d'Edgar Allan Poe, poète américain, 2009Parue dans Les Derniers Jours d'Edgar Poe, Glyphe, coll. « Imaginaires »
 Quelques moments dans la vie d'un homme d'affaires, 2013Parue dans l'anthologie des dix ans du festival de Sèvres, dirigée par Jeanne-A Debats
-Le Trophée, 2023Parue dans Hors-série 2023, Le Bélial', coll. « Une heure-lumière »
-Littérature jeunesse
-Série Contes
-Contes et légendes de la mythologie celtique, Nathan, 2000
+Le Trophée, 2023Parue dans Hors-série 2023, Le Bélial', coll. « Une heure-lumière »</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Christian_Léourier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_L%C3%A9ourier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Contes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Contes et légendes de la mythologie celtique, Nathan, 2000
 Contes et récits des Héros de la montagne, Nathan, 2001
-Contes et récits de la Résistance, Nathan, 2003
-Série Jarvis
-Le Messager de la grande île, Hachette, coll. « Bibliothèque Rouge », 1974
+Contes et récits de la Résistance, Nathan, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Christian_Léourier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_L%C3%A9ourier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Jarvis</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Messager de la grande île, Hachette, coll. « Bibliothèque Rouge », 1974
 Le Paradis des hommes perdus, Hachette, coll. « Bibliothèque Rouge », 1975
 L'Envoyé du quatrième règne, Hachette, coll. « Poche Rouge », 1976
 Les Rebelles de la soif, Hachette, coll. « Poche Rouge », 1976
 La Cité des hauts remparts, Hachette, coll. « Voies Libres », 1977
-L'Astéroïde noir, Hachette, coll. « Voies Libres », 1978
-Série Sous le vent de la liberté
-Lumière d'Amérique, Bayard jeunesse, coll. « Millézime », 2005
+L'Astéroïde noir, Hachette, coll. « Voies Libres », 1978</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Christian_Léourier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_L%C3%A9ourier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Sous le vent de la liberté</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lumière d'Amérique, Bayard jeunesse, coll. « Millézime », 2005
 Chasseurs et proies, Bayard jeunesse, coll. « Millézime », 2006
 Les Temps cruels, Bayard jeunesse, coll. « Millézime », 2006
-Sous le vent de la liberté, édition intégrale, Argyll, 2021, 688 p.
-Romans indépendants
-L'Arbre miroir, Robert Laffont, coll. « L'Âge des étoiles », 1977
+Sous le vent de la liberté, édition intégrale, Argyll, 2021, 688 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Christian_Léourier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_L%C3%A9ourier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L'Arbre miroir, Robert Laffont, coll. « L'Âge des étoiles », 1977
 Le Gwemen Sacré, Hachette, 1979
 L'appel des Ondins, Hachette, coll. « Eclipse », 1980
 Petit Dragon, Magnard Jeunesse, 1987
